--- a/Data Visualiser/shop.xlsx
+++ b/Data Visualiser/shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DATA-CRAFT\streamlit\Data Visualiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC967A-395C-4D3F-972D-6489F37DE753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269328B6-1AC3-485E-ABBD-C88B29355E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>GPU</t>
   </si>
   <si>
@@ -47,13 +44,16 @@
   <si>
     <t>CASTING</t>
   </si>
+  <si>
+    <t>DATE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -86,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,7 +370,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,22 +385,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
